--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA6794-2C0A-4207-A9E5-1BE3BFBCA85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA21B8-E015-4658-BD3F-10F7D4CD030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2250" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
         <v>2402</v>
       </c>
       <c r="F6">
-        <v>6201</v>
+        <v>6202</v>
       </c>
       <c r="G6">
         <v>1002</v>
@@ -678,7 +678,7 @@
         <v>2403</v>
       </c>
       <c r="F7">
-        <v>6201</v>
+        <v>6203</v>
       </c>
       <c r="G7">
         <v>1003</v>
@@ -710,7 +710,7 @@
         <v>2404</v>
       </c>
       <c r="F8">
-        <v>6201</v>
+        <v>6204</v>
       </c>
       <c r="G8">
         <v>1004</v>
@@ -742,7 +742,7 @@
         <v>2405</v>
       </c>
       <c r="F9">
-        <v>6201</v>
+        <v>6205</v>
       </c>
       <c r="G9">
         <v>1005</v>
@@ -774,7 +774,7 @@
         <v>2406</v>
       </c>
       <c r="F10">
-        <v>6201</v>
+        <v>6206</v>
       </c>
       <c r="G10">
         <v>1006</v>

--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA21B8-E015-4658-BD3F-10F7D4CD030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AAAE1F-5C9E-4A32-9A05-13D1E796EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="2595" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,15 +135,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weaponPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bulletPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -547,10 +547,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>

--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AAAE1F-5C9E-4A32-9A05-13D1E796EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B549D-8A92-42F8-A4E8-5494584A55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2595" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B549D-8A92-42F8-A4E8-5494584A55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152FD62D-4E27-40C5-A037-87B8DC1795BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -719,13 +719,13 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,13 +783,13 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152FD62D-4E27-40C5-A037-87B8DC1795BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFDB14-4E80-4FA3-8FEC-3030F77C068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expSound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +495,7 @@
     <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,8 +537,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -564,8 +575,11 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -599,8 +613,11 @@
       <c r="K4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -626,13 +643,16 @@
         <v>1200</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>2605</v>
       </c>
       <c r="K5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -658,13 +678,16 @@
         <v>2500</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>2607</v>
       </c>
       <c r="K6">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -690,13 +713,16 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>2608</v>
       </c>
       <c r="K7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -722,13 +748,16 @@
         <v>1500</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>2610</v>
       </c>
       <c r="K8">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -754,13 +783,16 @@
         <v>700</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>2606</v>
       </c>
       <c r="K9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -786,10 +818,13 @@
         <v>900</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>2602</v>
       </c>
       <c r="K10">
         <v>400</v>
+      </c>
+      <c r="L10">
+        <v>2603</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Weapon.xlsx
+++ b/assets/resources/datatables/Weapon.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFDB14-4E80-4FA3-8FEC-3030F77C068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B5F3D221-24E2-4FA1-AD84-FD44BCE26743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="4770" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,10 +713,10 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="K7">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="L7">
         <v>2603</v>
@@ -748,7 +748,7 @@
         <v>1500</v>
       </c>
       <c r="J8">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="K8">
         <v>250</v>
@@ -786,7 +786,7 @@
         <v>2606</v>
       </c>
       <c r="K9">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L9">
         <v>2603</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="J10">
         <v>2602</v>
